--- a/problem_sets/ps_2/solutions/PS_2_soln.xlsx
+++ b/problem_sets/ps_2/solutions/PS_2_soln.xlsx
@@ -5,13 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Question 2" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Question 3" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Question 4" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
   <si>
     <t xml:space="preserve">Student</t>
   </si>
@@ -387,52 +386,17 @@
   <si>
     <t xml:space="preserve">Reject the null hypothesis</t>
   </si>
-  <si>
-    <t xml:space="preserve">Student Satisfaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) All students of Economics department @ EWU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> b) May be biased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c) p= All students who are satisfied from Econ dept. @ EWU/ Total Students of Econ dept. @ EWU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d)Sample Proportion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e) Point Estimate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f) mean=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variance=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g) Mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h) Standard Error</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,13 +439,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF969696"/>
-      <name val="DejaVu Serif"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -603,7 +560,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -741,14 +698,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1379,7 +1328,7 @@
       </c>
       <c r="F11" s="16" t="n">
         <f aca="false">(F7-F6)/(F9/SQRT(F8))</f>
-        <v>2.02666666666666</v>
+        <v>2.02666666666667</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="11"/>
@@ -1390,7 +1339,7 @@
       </c>
       <c r="L11" s="15" t="n">
         <f aca="false">(L7-L6)/(L9/SQRT(L8))</f>
-        <v>2.02666666666666</v>
+        <v>2.02666666666667</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="17"/>
@@ -1402,7 +1351,7 @@
       </c>
       <c r="U11" s="15" t="n">
         <f aca="false">(U7-U6)/(U9/SQRT(U8))</f>
-        <v>2.02666666666666</v>
+        <v>2.02666666666667</v>
       </c>
       <c r="V11" s="15"/>
       <c r="W11" s="17"/>
@@ -1703,21 +1652,21 @@
       </c>
       <c r="E23" s="1" t="n">
         <f aca="false">2*(1- _xlfn.NORM.DIST(F11,0,1,1))</f>
-        <v>0.0426965136160513</v>
+        <v>0.0426965136160504</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K23" s="1" t="n">
         <f aca="false">_xlfn.NORM.DIST(L11,0, 1, 1)</f>
-        <v>0.978651743191974</v>
+        <v>0.978651743191975</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T23" s="1" t="n">
         <f aca="false">1 - _xlfn.NORM.DIST(U11,0, 1,1)</f>
-        <v>0.0213482568080257</v>
+        <v>0.0213482568080252</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2184,7 +2133,7 @@
   </sheetPr>
   <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N28" activeCellId="0" sqref="N28"/>
     </sheetView>
   </sheetViews>
@@ -2462,7 +2411,7 @@
       </c>
       <c r="I14" s="16" t="n">
         <f aca="false">_xlfn.STDEV.S('Question 1'!B2:B65)</f>
-        <v>6.88884052722402</v>
+        <v>6.888840527224</v>
       </c>
       <c r="J14" s="17"/>
       <c r="M14" s="13"/>
@@ -2472,7 +2421,7 @@
       </c>
       <c r="P14" s="16" t="n">
         <f aca="false">_xlfn.STDEV.S(B2:B65)</f>
-        <v>6.88884052722402</v>
+        <v>6.888840527224</v>
       </c>
       <c r="Q14" s="32"/>
       <c r="S14" s="13"/>
@@ -2482,7 +2431,7 @@
       </c>
       <c r="V14" s="16" t="n">
         <f aca="false">_xlfn.STDEV.S(B2:B65)</f>
-        <v>6.88884052722402</v>
+        <v>6.888840527224</v>
       </c>
       <c r="W14" s="32"/>
     </row>
@@ -2523,7 +2472,7 @@
       </c>
       <c r="I16" s="15" t="n">
         <f aca="false">(I12-I11)/(I14/SQRT(I13))</f>
-        <v>1.76517368226842</v>
+        <v>1.76517368226843</v>
       </c>
       <c r="J16" s="17"/>
       <c r="M16" s="13"/>
@@ -2533,7 +2482,7 @@
       </c>
       <c r="P16" s="15" t="n">
         <f aca="false">(P12-P11)/(P14/SQRT(P13))</f>
-        <v>1.76517368226842</v>
+        <v>1.76517368226843</v>
       </c>
       <c r="Q16" s="32"/>
       <c r="S16" s="13"/>
@@ -2543,7 +2492,7 @@
       </c>
       <c r="V16" s="15" t="n">
         <f aca="false">(V12-V11)/(V14/SQRT(V13))</f>
-        <v>1.76517368226842</v>
+        <v>1.76517368226843</v>
       </c>
       <c r="W16" s="32"/>
     </row>
@@ -2719,12 +2668,12 @@
       <c r="B24" s="26" t="n">
         <v>30.36</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="30" t="n">
         <f aca="false">2*(1-_xlfn.T.DIST(I16, 63,1))</f>
-        <v>0.0823808384766664</v>
+        <v>0.0823808384766642</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3073,8 +3022,8 @@
   </sheetPr>
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P4" activeCellId="0" sqref="P4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3857,611 +3806,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G65"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T37" activeCellId="0" sqref="T37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="8.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="14.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="30" width="17.89"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="F1" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="36" t="n">
-        <f aca="false">AVERAGE(B2:B65)</f>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="36" t="n">
-        <f aca="false">AVERAGE(B2:B66)</f>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="36" t="n">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="30" t="n">
-        <f aca="false">G6*(1-G6)</f>
-        <v>0.234375</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="30" t="n">
-        <f aca="false">G7/64</f>
-        <v>0.003662109375</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="30" t="n">
-        <f aca="false">SQRT(G9)</f>
-        <v>0.0605153647844909</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="35" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="35" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="35" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="35" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="35" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="35" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="35" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="35" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="35" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="35" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="35" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="35" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="35" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="35" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="35" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="35" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="35" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="35" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="35" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="35" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="35" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="35" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="35" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="35" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="35" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="35" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="35" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="35" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="35" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="35" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="35" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="35" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="35" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="35" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="35" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="35" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="35" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="35" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="35" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="35" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="35" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="35" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="35" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="35" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="35" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="35" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="35" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="35" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="35" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="35" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" s="35" t="n">
-        <f aca="false">A1:B650</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>